--- a/output/WESTERN_23611241000172.xlsx
+++ b/output/WESTERN_23611241000172.xlsx
@@ -999,10 +999,10 @@
         <v>44165</v>
       </c>
       <c r="B56">
-        <v>0.3393455484999999</v>
+        <v>0.3397369578</v>
       </c>
       <c r="C56">
-        <v>0.002639277848754062</v>
+        <v>0.002932288370448788</v>
       </c>
     </row>
   </sheetData>

--- a/output/WESTERN_23611241000172.xlsx
+++ b/output/WESTERN_23611241000172.xlsx
@@ -14,12 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>WESTERN ASSET MULTITRADING PREMIUM FICFI MULTIMERCADO</t>
-  </si>
-  <si>
-    <t>mensal</t>
   </si>
   <si>
     <t>d</t>
@@ -386,623 +383,458 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C56"/>
+  <dimension ref="A1:B56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="2">
         <v>42521</v>
       </c>
       <c r="B2">
-        <v>0.01043051299999997</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="2">
         <v>42551</v>
       </c>
       <c r="B3">
-        <v>0.009209092000000085</v>
-      </c>
-      <c r="C3">
         <v>-0.001208812465860132</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:2">
       <c r="A4" s="2">
         <v>42582</v>
       </c>
       <c r="B4">
-        <v>0.03035189599999999</v>
-      </c>
-      <c r="C4">
         <v>0.02094987467671361</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:2">
       <c r="A5" s="2">
         <v>42613</v>
       </c>
       <c r="B5">
-        <v>0.03051254267999992</v>
-      </c>
-      <c r="C5">
         <v>0.0001559143828662179</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:2">
       <c r="A6" s="2">
         <v>42643</v>
       </c>
       <c r="B6">
-        <v>0.03198206975999995</v>
-      </c>
-      <c r="C6">
         <v>0.001426015714644624</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:2">
       <c r="A7" s="2">
         <v>42674</v>
       </c>
       <c r="B7">
-        <v>0.04974187149999998</v>
-      </c>
-      <c r="C7">
         <v>0.01720940921398983</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:2">
       <c r="A8" s="2">
         <v>42704</v>
       </c>
       <c r="B8">
-        <v>0.02335151218000009</v>
-      </c>
-      <c r="C8">
         <v>-0.02513985584121747</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:2">
       <c r="A9" s="2">
         <v>42735</v>
       </c>
       <c r="B9">
-        <v>0.03864903127999986</v>
-      </c>
-      <c r="C9">
         <v>0.01494845018346846</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:2">
       <c r="A10" s="2">
         <v>42766</v>
       </c>
       <c r="B10">
-        <v>0.0529061554000001</v>
-      </c>
-      <c r="C10">
         <v>0.01372660416621208</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:2">
       <c r="A11" s="2">
         <v>42794</v>
       </c>
       <c r="B11">
-        <v>0.06929644224999998</v>
-      </c>
-      <c r="C11">
         <v>0.0155667119675762</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:2">
       <c r="A12" s="2">
         <v>42825</v>
       </c>
       <c r="B12">
-        <v>0.07460401201</v>
-      </c>
-      <c r="C12">
         <v>0.004963609295128624</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:2">
       <c r="A13" s="2">
         <v>42855</v>
       </c>
       <c r="B13">
-        <v>0.08267882914000002</v>
-      </c>
-      <c r="C13">
         <v>0.00751422574246341</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:2">
       <c r="A14" s="2">
         <v>42886</v>
       </c>
       <c r="B14">
-        <v>0.07332520813999999</v>
-      </c>
-      <c r="C14">
         <v>-0.008639331210927859</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:2">
       <c r="A15" s="2">
         <v>42916</v>
       </c>
       <c r="B15">
-        <v>0.09369098278999988</v>
-      </c>
-      <c r="C15">
         <v>0.01897446784585677</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:2">
       <c r="A16" s="2">
         <v>42947</v>
       </c>
       <c r="B16">
-        <v>0.1043547595699998</v>
-      </c>
-      <c r="C16">
         <v>0.00975026488085029</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:2">
       <c r="A17" s="2">
         <v>42978</v>
       </c>
       <c r="B17">
-        <v>0.11379212723</v>
-      </c>
-      <c r="C17">
         <v>0.00854559422886414</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:2">
       <c r="A18" s="2">
         <v>43008</v>
       </c>
       <c r="B18">
-        <v>0.12608030098</v>
-      </c>
-      <c r="C18">
         <v>0.01103273532787541</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:2">
       <c r="A19" s="2">
         <v>43039</v>
       </c>
       <c r="B19">
-        <v>0.11430045046</v>
-      </c>
-      <c r="C19">
         <v>-0.0104609329456774</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:2">
       <c r="A20" s="2">
         <v>43069</v>
       </c>
       <c r="B20">
-        <v>0.1015922070500002</v>
-      </c>
-      <c r="C20">
         <v>-0.01140468300515696</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:2">
       <c r="A21" s="2">
         <v>43100</v>
       </c>
       <c r="B21">
-        <v>0.12560142041</v>
-      </c>
-      <c r="C21">
         <v>0.02179501017376939</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:2">
       <c r="A22" s="2">
         <v>43131</v>
       </c>
       <c r="B22">
-        <v>0.1544653790699999</v>
-      </c>
-      <c r="C22">
         <v>0.02564314342237251</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:2">
       <c r="A23" s="2">
         <v>43159</v>
       </c>
       <c r="B23">
-        <v>0.1506994429799999</v>
-      </c>
-      <c r="C23">
         <v>-0.003262060654459553</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:2">
       <c r="A24" s="2">
         <v>43190</v>
       </c>
       <c r="B24">
-        <v>0.1654201946</v>
-      </c>
-      <c r="C24">
         <v>0.01279287281297137</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:2">
       <c r="A25" s="2">
         <v>43220</v>
       </c>
       <c r="B25">
-        <v>0.1769275081000001</v>
-      </c>
-      <c r="C25">
         <v>0.009873960957017536</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:2">
       <c r="A26" s="2">
         <v>43251</v>
       </c>
       <c r="B26">
-        <v>0.1510259112000001</v>
-      </c>
-      <c r="C26">
         <v>-0.02200780993029461</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:2">
       <c r="A27" s="2">
         <v>43281</v>
       </c>
       <c r="B27">
-        <v>0.1447047543000002</v>
-      </c>
-      <c r="C27">
         <v>-0.005491758993861229</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:2">
       <c r="A28" s="2">
         <v>43312</v>
       </c>
       <c r="B28">
-        <v>0.1511697131</v>
-      </c>
-      <c r="C28">
         <v>0.005647708525464479</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:2">
       <c r="A29" s="2">
         <v>43343</v>
       </c>
       <c r="B29">
-        <v>0.1421469704</v>
-      </c>
-      <c r="C29">
         <v>-0.007837890970656791</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:2">
       <c r="A30" s="2">
         <v>43373</v>
       </c>
       <c r="B30">
-        <v>0.1555258257000001</v>
-      </c>
-      <c r="C30">
         <v>0.01171377733928103</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:2">
       <c r="A31" s="2">
         <v>43404</v>
       </c>
       <c r="B31">
-        <v>0.1743962369000001</v>
-      </c>
-      <c r="C31">
         <v>0.01633058368779294</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:2">
       <c r="A32" s="2">
         <v>43434</v>
       </c>
       <c r="B32">
-        <v>0.1832984930000001</v>
-      </c>
-      <c r="C32">
         <v>0.007580283230044227</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:2">
       <c r="A33" s="2">
         <v>43465</v>
       </c>
       <c r="B33">
-        <v>0.2000162882000001</v>
-      </c>
-      <c r="C33">
         <v>0.01412813022149262</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:2">
       <c r="A34" s="2">
         <v>43496</v>
       </c>
       <c r="B34">
-        <v>0.2234443479999999</v>
-      </c>
-      <c r="C34">
         <v>0.01952311816962204</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:2">
       <c r="A35" s="2">
         <v>43524</v>
       </c>
       <c r="B35">
-        <v>0.2231061033999999</v>
-      </c>
-      <c r="C35">
         <v>-0.0002764691344996351</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:2">
       <c r="A36" s="2">
         <v>43555</v>
       </c>
       <c r="B36">
-        <v>0.2261871498999999</v>
-      </c>
-      <c r="C36">
         <v>0.002519034523198904</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:2">
       <c r="A37" s="2">
         <v>43585</v>
       </c>
       <c r="B37">
-        <v>0.2310905314</v>
-      </c>
-      <c r="C37">
         <v>0.003998885080797043</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:2">
       <c r="A38" s="2">
         <v>43616</v>
       </c>
       <c r="B38">
-        <v>0.2426246902</v>
-      </c>
-      <c r="C38">
         <v>0.009369058169006683</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:2">
       <c r="A39" s="2">
         <v>43646</v>
       </c>
       <c r="B39">
-        <v>0.2654166293</v>
-      </c>
-      <c r="C39">
         <v>0.01834177228229028</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:2">
       <c r="A40" s="2">
         <v>43677</v>
       </c>
       <c r="B40">
-        <v>0.2768403880000001</v>
-      </c>
-      <c r="C40">
         <v>0.009027666015673841</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:2">
       <c r="A41" s="2">
         <v>43708</v>
       </c>
       <c r="B41">
-        <v>0.2787607290999998</v>
-      </c>
-      <c r="C41">
         <v>0.001503978976579612</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:2">
       <c r="A42" s="2">
         <v>43738</v>
       </c>
       <c r="B42">
-        <v>0.2864768126999999</v>
-      </c>
-      <c r="C42">
         <v>0.006034032344292228</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:2">
       <c r="A43" s="2">
         <v>43769</v>
       </c>
       <c r="B43">
-        <v>0.3092325916000001</v>
-      </c>
-      <c r="C43">
         <v>0.01768844854050755</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:2">
       <c r="A44" s="2">
         <v>43799</v>
       </c>
       <c r="B44">
-        <v>0.2952565216</v>
-      </c>
-      <c r="C44">
         <v>-0.01067500923034614</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:2">
       <c r="A45" s="2">
         <v>43830</v>
       </c>
       <c r="B45">
-        <v>0.3187874817</v>
-      </c>
-      <c r="C45">
         <v>0.01816702692292393</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:2">
       <c r="A46" s="2">
         <v>43861</v>
       </c>
       <c r="B46">
-        <v>0.3176252452999999</v>
-      </c>
-      <c r="C46">
         <v>-0.0008812916532252579</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:2">
       <c r="A47" s="2">
         <v>43890</v>
       </c>
       <c r="B47">
-        <v>0.3115043572</v>
-      </c>
-      <c r="C47">
         <v>-0.004645393765665307</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:2">
       <c r="A48" s="2">
         <v>43921</v>
       </c>
       <c r="B48">
-        <v>0.2718124863</v>
-      </c>
-      <c r="C48">
         <v>-0.03026438355472971</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:2">
       <c r="A49" s="2">
         <v>43951</v>
       </c>
       <c r="B49">
-        <v>0.2815641689999999</v>
-      </c>
-      <c r="C49">
         <v>0.007667547539472519</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:2">
       <c r="A50" s="2">
         <v>43982</v>
       </c>
       <c r="B50">
-        <v>0.2988801888999999</v>
-      </c>
-      <c r="C50">
         <v>0.01351162924093896</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:2">
       <c r="A51" s="2">
         <v>44012</v>
       </c>
       <c r="B51">
-        <v>0.3115696903</v>
-      </c>
-      <c r="C51">
         <v>0.009769570364104752</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:2">
       <c r="A52" s="2">
         <v>44043</v>
       </c>
       <c r="B52">
-        <v>0.3365074583000001</v>
-      </c>
-      <c r="C52">
         <v>0.01901368122825087</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:2">
       <c r="A53" s="2">
         <v>44074</v>
       </c>
       <c r="B53">
-        <v>0.3474138210000002</v>
-      </c>
-      <c r="C53">
         <v>0.008160345557571835</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:2">
       <c r="A54" s="2">
         <v>44104</v>
       </c>
       <c r="B54">
-        <v>0.3410332281000001</v>
-      </c>
-      <c r="C54">
         <v>-0.004735436731133302</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:2">
       <c r="A55" s="2">
         <v>44135</v>
       </c>
       <c r="B55">
-        <v>0.3358199485</v>
-      </c>
-      <c r="C55">
         <v>-0.003887509638658582</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:2">
       <c r="A56" s="2">
         <v>44165</v>
       </c>
       <c r="B56">
-        <v>0.3397369578</v>
-      </c>
-      <c r="C56">
-        <v>0.002932288370448788</v>
+        <v>0.001975406268609037</v>
       </c>
     </row>
   </sheetData>
